--- a/biology/Botanique/Liste_des_plantes-hôtes_de_la_bactérie_Xylella_fastidiosa/Liste_des_plantes-hôtes_de_la_bactérie_Xylella_fastidiosa.xlsx
+++ b/biology/Botanique/Liste_des_plantes-hôtes_de_la_bactérie_Xylella_fastidiosa/Liste_des_plantes-hôtes_de_la_bactérie_Xylella_fastidiosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes-h%C3%B4tes_de_la_bact%C3%A9rie_Xylella_fastidiosa</t>
+          <t>Liste_des_plantes-hôtes_de_la_bactérie_Xylella_fastidiosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des plantes-hôtes de la bactérie Xylella fastidiosa comprend de nombreuses espèces de plantes très diverses : monocotylédones et dicotylédones, herbacées ou arborescentes, cultivées ou sauvages.
-On compte 132 espèces appartenant à 45 familles différentes pour la seule sous-espèce fastidiosa responsable de la maladie de Pierce chez la vigne en Californie[1]. 
+On compte 132 espèces appartenant à 45 familles différentes pour la seule sous-espèce fastidiosa responsable de la maladie de Pierce chez la vigne en Californie. 
 Une grande partie de ces plantes peuvent abriter la bactérie sans montrer de symptômes de maladie (infections asymptomatiques).
 Cette liste comprend 13 espèces signalées comme plantes-hôtes à la suite de l'introduction de Xylella fastidiosa en Europe (Italie, province de Lecce) où elle est signalée comme étant l'agent du syndrome du dessèchement rapide de l'olivier depuis octobre 2013.
-En France, l'importation des plantes de cette liste est interdite lorsqu'elles proviennent de pays tiers où Xylella fastidiosa est présente ; elle est autorisée sous conditions dans les autres cas[2]. La présence de la bactérie sur le territoire français a été signalée le 22 juillet 2015 sur des plants de Polygala myrtifolia à Propriano (Corse)[3]. 
+En France, l'importation des plantes de cette liste est interdite lorsqu'elles proviennent de pays tiers où Xylella fastidiosa est présente ; elle est autorisée sous conditions dans les autres cas. La présence de la bactérie sur le territoire français a été signalée le 22 juillet 2015 sur des plants de Polygala myrtifolia à Propriano (Corse). 
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes-h%C3%B4tes_de_la_bact%C3%A9rie_Xylella_fastidiosa</t>
+          <t>Liste_des_plantes-hôtes_de_la_bactérie_Xylella_fastidiosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
